--- a/combined_responses.xlsx
+++ b/combined_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -587,9 +587,35 @@
         <v>2025-04-01T00:57:40.443Z</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Genna Gonzaga</v>
+      </c>
+      <c r="B8" t="str">
+        <v>gennasg97@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>9296847039</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2027</v>
+      </c>
+      <c r="E8" t="str">
+        <v>computer science</v>
+      </c>
+      <c r="F8" t="str">
+        <v>SEAS</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-04-21T05:07:14.254Z</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2025-04-21T05:07:14.254Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/combined_responses.xlsx
+++ b/combined_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -613,9 +613,35 @@
         <v>2025-04-21T05:07:14.254Z</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Genna Gonzaga</v>
+      </c>
+      <c r="B9" t="str">
+        <v>gennasg97@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>9296847039</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2027</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Computer Science</v>
+      </c>
+      <c r="F9" t="str">
+        <v>SEAS</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2025-04-21T06:00:20.176Z</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2025-04-21T06:00:20.176Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/combined_responses.xlsx
+++ b/combined_responses.xlsx
@@ -397,251 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="D1" t="str">
-        <v>year</v>
-      </c>
-      <c r="E1" t="str">
-        <v>major</v>
-      </c>
-      <c r="F1" t="str">
-        <v>campus</v>
-      </c>
-      <c r="G1" t="str">
-        <v>timestamp</v>
-      </c>
-      <c r="H1" t="str">
-        <v>form_submitted_at</v>
-      </c>
-      <c r="I1" t="str">
-        <v>quiz_submitted_at</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B2" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C2" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2028</v>
-      </c>
-      <c r="E2" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Columbia College</v>
-      </c>
-      <c r="G2" t="str">
-        <v>2025-04-01T00:46:16.693Z</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2025-04-01T00:46:16.693Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B3" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E3" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Columbia College</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2025-04-01T00:46:32.746Z</v>
-      </c>
-      <c r="H3" t="str">
-        <v>2025-04-01T00:46:32.746Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B4" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C4" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2026</v>
-      </c>
-      <c r="E4" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Columbia College</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2025-04-01T00:51:30.537Z</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2025-04-01T00:51:30.537Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B5" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C5" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E5" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Columbia College</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2025-04-01T00:52:00.694Z</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2025-04-01T00:52:00.694Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B6" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C6" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E6" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F6" t="str">
-        <v>SEAS</v>
-      </c>
-      <c r="G6" t="str">
-        <v>2025-04-01T00:52:44.777Z</v>
-      </c>
-      <c r="H6" t="str">
-        <v>2025-04-01T00:52:44.777Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B7" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C7" t="str">
-        <v>(929) 684-7039</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E7" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Columbia College</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2025-04-01T00:57:40.443Z</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2025-04-01T00:57:40.443Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B8" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C8" t="str">
-        <v>9296847039</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E8" t="str">
-        <v>computer science</v>
-      </c>
-      <c r="F8" t="str">
-        <v>SEAS</v>
-      </c>
-      <c r="G8" t="str">
-        <v>2025-04-21T05:07:14.254Z</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2025-04-21T05:07:14.254Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Genna Gonzaga</v>
-      </c>
-      <c r="B9" t="str">
-        <v>gennasg97@gmail.com</v>
-      </c>
-      <c r="C9" t="str">
-        <v>9296847039</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2027</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Computer Science</v>
-      </c>
-      <c r="F9" t="str">
-        <v>SEAS</v>
-      </c>
-      <c r="G9" t="str">
-        <v>2025-04-21T06:00:20.176Z</v>
-      </c>
-      <c r="H9" t="str">
-        <v>2025-04-21T06:00:20.176Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/combined_responses.xlsx
+++ b/combined_responses.xlsx
@@ -397,13 +397,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>email</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="D1" t="str">
+        <v>year</v>
+      </c>
+      <c r="E1" t="str">
+        <v>major</v>
+      </c>
+      <c r="F1" t="str">
+        <v>campus</v>
+      </c>
+      <c r="G1" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="H1" t="str">
+        <v>news_importance</v>
+      </c>
+      <c r="I1" t="str">
+        <v>assignments</v>
+      </c>
+      <c r="J1" t="str">
+        <v>text_first</v>
+      </c>
+      <c r="K1" t="str">
+        <v>subway</v>
+      </c>
+      <c r="L1" t="str">
+        <v>similar_friends</v>
+      </c>
+      <c r="M1" t="str">
+        <v>disagreement</v>
+      </c>
+      <c r="N1" t="str">
+        <v>work_life</v>
+      </c>
+      <c r="O1" t="str">
+        <v>eye_contact</v>
+      </c>
+      <c r="P1" t="str">
+        <v>work_ethic</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>college_best</v>
+      </c>
+      <c r="R1" t="str">
+        <v>stranger_connection</v>
+      </c>
+      <c r="S1" t="str">
+        <v>restaurant</v>
+      </c>
+      <c r="T1" t="str">
+        <v>lecture_annoyance</v>
+      </c>
+      <c r="U1" t="str">
+        <v>app</v>
+      </c>
+      <c r="V1" t="str">
+        <v>timestamp</v>
+      </c>
+      <c r="W1" t="str">
+        <v>form_submitted_at</v>
+      </c>
+      <c r="X1" t="str">
+        <v>quiz_submitted_at</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>gennasg97@gmail.com</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Genna Gonzaga</v>
+      </c>
+      <c r="C2" t="str">
+        <v>9296847039</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2026</v>
+      </c>
+      <c r="E2" t="str">
+        <v>computer science</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Columbia College</v>
+      </c>
+      <c r="G2" t="str">
+        <v>basic</v>
+      </c>
+      <c r="H2" t="str">
+        <v>71</v>
+      </c>
+      <c r="I2" t="str">
+        <v>days</v>
+      </c>
+      <c r="J2" t="str">
+        <v>93</v>
+      </c>
+      <c r="K2" t="str">
+        <v>pole_gloves</v>
+      </c>
+      <c r="L2" t="str">
+        <v>87</v>
+      </c>
+      <c r="M2" t="str">
+        <v>confront</v>
+      </c>
+      <c r="N2" t="str">
+        <v>79</v>
+      </c>
+      <c r="O2" t="str">
+        <v>no</v>
+      </c>
+      <c r="P2" t="str">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>social</v>
+      </c>
+      <c r="R2" t="str">
+        <v>85</v>
+      </c>
+      <c r="S2" t="str">
+        <v>hooda</v>
+      </c>
+      <c r="T2" t="str">
+        <v>coffee</v>
+      </c>
+      <c r="U2" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="V2" t="str">
+        <v>2025-04-22T00:35:11.683Z</v>
+      </c>
+      <c r="W2" t="str">
+        <v>2025-04-22T00:34:41.543Z</v>
+      </c>
+      <c r="X2" t="str">
+        <v>2025-04-22T00:35:11.683Z</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/combined_responses.xlsx
+++ b/combined_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -550,9 +550,106 @@
         <v>2025-04-22T00:35:11.683Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>paige@gmail.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Paige</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5767374</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2027</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ts</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Columbia College</v>
+      </c>
+      <c r="G3" t="str">
+        <v>basic</v>
+      </c>
+      <c r="H3" t="str">
+        <v>64</v>
+      </c>
+      <c r="I3" t="str">
+        <v>days</v>
+      </c>
+      <c r="J3" t="str">
+        <v>90</v>
+      </c>
+      <c r="K3" t="str">
+        <v>stand_jeans</v>
+      </c>
+      <c r="L3" t="str">
+        <v>90</v>
+      </c>
+      <c r="M3" t="str">
+        <v>confront</v>
+      </c>
+      <c r="N3" t="str">
+        <v>75</v>
+      </c>
+      <c r="O3" t="str">
+        <v>no</v>
+      </c>
+      <c r="P3" t="str">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>social</v>
+      </c>
+      <c r="R3" t="str">
+        <v>86</v>
+      </c>
+      <c r="S3" t="str">
+        <v>popupbagels</v>
+      </c>
+      <c r="T3" t="str">
+        <v>gossipers</v>
+      </c>
+      <c r="U3" t="str">
+        <v>beli</v>
+      </c>
+      <c r="V3" t="str">
+        <v>2025-04-22T00:40:40.760Z</v>
+      </c>
+      <c r="W3" t="str">
+        <v>2025-04-22T00:40:07.055Z</v>
+      </c>
+      <c r="X3" t="str">
+        <v>2025-04-22T00:40:40.760Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>THETWINPACT@GMAIL.COM</v>
+      </c>
+      <c r="B4" t="str">
+        <v>THE TWIN PACT</v>
+      </c>
+      <c r="C4" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Visual Arts</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Columbia College</v>
+      </c>
+      <c r="W4" t="str">
+        <v>2025-04-22T01:03:22.895Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X4"/>
   </ignoredErrors>
 </worksheet>
 </file>